--- a/mentions/housekeepingMentions.xlsx
+++ b/mentions/housekeepingMentions.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>15</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1100,10 +1100,10 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
         <v>2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43">
